--- a/data/Subset1_WithDialogActs/Number line models 4_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number line models 4_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2531,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3215,12 +3215,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3785,12 +3785,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5339,12 +5339,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5833,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6707,12 +6707,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6939,12 +6939,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7509,12 +7509,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7737,12 +7737,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8231,12 +8231,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8269,12 +8269,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8687,12 +8687,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8809,12 +8809,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9337,12 +9337,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9717,12 +9717,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
